--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21704271-AE9D-4687-B32D-D6597A347DFF}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B63EC704-9C41-4B0F-9A9F-A951F2E3FB95}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -203,7 +203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -562,6 +561,9 @@
     <col min="8" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15">
@@ -640,14 +642,26 @@
       <c r="Y1" s="11">
         <v>44659</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
+      <c r="Z1" s="11">
+        <v>44663</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>44664</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>44665</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>44670</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>44671</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>44673</v>
+      </c>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
     <row r="2" spans="1:33" ht="15">
       <c r="A2" s="1" t="s">
@@ -719,6 +733,15 @@
       <c r="Y2">
         <v>3</v>
       </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3" spans="1:33" ht="15">
       <c r="A3" s="2" t="s">
@@ -736,6 +759,9 @@
       <c r="O3">
         <v>3</v>
       </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
       <c r="V3">
         <v>3</v>
       </c>
@@ -746,6 +772,24 @@
         <v>3</v>
       </c>
       <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>3.5</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
         <v>3</v>
       </c>
     </row>
@@ -784,8 +828,8 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="6">
-        <f>SUM(R2:Z2)</f>
-        <v>22</v>
+        <f>SUM(R2:AK2)</f>
+        <v>28.5</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -796,8 +840,8 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="6">
-        <f>SUM(R3:Z3)</f>
-        <v>12</v>
+        <f>SUM(R3:AK3)</f>
+        <v>35.5</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -811,7 +855,7 @@
       </c>
       <c r="C15" s="9">
         <f>SUM(C13:C14)</f>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8">
         <v>65</v>
@@ -824,7 +868,7 @@
       </c>
       <c r="D16" s="5">
         <f>C15/D15</f>
-        <v>0.52307692307692311</v>
+        <v>0.98461538461538467</v>
       </c>
     </row>
     <row r="17" ht="15"/>

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B63EC704-9C41-4B0F-9A9F-A951F2E3FB95}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470D33FE-BEE1-4C98-86A2-C8256396A891}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -203,7 +203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -563,10 +562,10 @@
     <col min="21" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15">
+    <row r="1" spans="1:37" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,10 +659,22 @@
       <c r="AE1" s="11">
         <v>44673</v>
       </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="AF1" s="11">
+        <v>44677</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>44678</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>44679</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>44680</v>
+      </c>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:33" ht="15">
+    <row r="2" spans="1:37" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,8 +753,20 @@
       <c r="AE2">
         <v>1.5</v>
       </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="15">
+    <row r="3" spans="1:37" ht="15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,14 +815,20 @@
       <c r="AE3">
         <v>3</v>
       </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="15"/>
-    <row r="5" spans="1:33" ht="15"/>
-    <row r="7" spans="1:33" ht="15"/>
-    <row r="8" spans="1:33" ht="15"/>
-    <row r="9" spans="1:33" ht="15"/>
-    <row r="10" spans="1:33" ht="15"/>
-    <row r="11" spans="1:33" ht="15">
+    <row r="4" spans="1:37" ht="15"/>
+    <row r="5" spans="1:37" ht="15"/>
+    <row r="7" spans="1:37" ht="15"/>
+    <row r="8" spans="1:37" ht="15"/>
+    <row r="9" spans="1:37" ht="15"/>
+    <row r="10" spans="1:37" ht="15"/>
+    <row r="11" spans="1:37" ht="15">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -807,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15">
+    <row r="12" spans="1:37" ht="15">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -821,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15">
+    <row r="13" spans="1:37" ht="15">
       <c r="A13" s="6">
         <f>SUM(B2:Q2)</f>
         <v>38.5</v>
@@ -829,11 +858,11 @@
       <c r="B13" s="7"/>
       <c r="C13" s="6">
         <f>SUM(R2:AK2)</f>
-        <v>28.5</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="15">
+    <row r="14" spans="1:37" ht="15">
       <c r="A14" s="6">
         <f>SUM(B3:Q3)</f>
         <v>12</v>
@@ -841,11 +870,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="6">
         <f>SUM(R3:AK3)</f>
-        <v>35.5</v>
+        <v>41.5</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="15">
+    <row r="15" spans="1:37" ht="15">
       <c r="A15" s="9">
         <f>SUM(A13:A14)</f>
         <v>50.5</v>
@@ -855,20 +884,20 @@
       </c>
       <c r="C15" s="9">
         <f>SUM(C13:C14)</f>
-        <v>64</v>
+        <v>77.5</v>
       </c>
       <c r="D15" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15">
+    <row r="16" spans="1:37" ht="15">
       <c r="B16" s="5">
         <f>A15/B15</f>
         <v>1.2625</v>
       </c>
       <c r="D16" s="5">
         <f>C15/D15</f>
-        <v>0.98461538461538467</v>
+        <v>1.1923076923076923</v>
       </c>
     </row>
     <row r="17" ht="15"/>

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470D33FE-BEE1-4C98-86A2-C8256396A891}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9C79E4A-EFE4-43C8-B7F7-BE21485A9DE6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,28 +544,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10" customWidth="1"/>
-    <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" ht="15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -821,14 +821,11 @@
       <c r="AG3">
         <v>2</v>
       </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" ht="15"/>
-    <row r="5" spans="1:37" ht="15"/>
-    <row r="7" spans="1:37" ht="15"/>
-    <row r="8" spans="1:37" ht="15"/>
-    <row r="9" spans="1:37" ht="15"/>
-    <row r="10" spans="1:37" ht="15"/>
-    <row r="11" spans="1:37" ht="15">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -836,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -850,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f>SUM(B2:Q2)</f>
         <v>38.5</v>
@@ -862,7 +859,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:37" ht="15">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f>SUM(B3:Q3)</f>
         <v>12</v>
@@ -870,11 +867,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="6">
         <f>SUM(R3:AK3)</f>
-        <v>41.5</v>
+        <v>44.5</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:37" ht="15">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>SUM(A13:A14)</f>
         <v>50.5</v>
@@ -884,25 +881,22 @@
       </c>
       <c r="C15" s="9">
         <f>SUM(C13:C14)</f>
-        <v>77.5</v>
+        <v>80.5</v>
       </c>
       <c r="D15" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f>A15/B15</f>
         <v>1.2625</v>
       </c>
       <c r="D16" s="5">
         <f>C15/D15</f>
-        <v>1.1923076923076923</v>
+        <v>1.2384615384615385</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9C79E4A-EFE4-43C8-B7F7-BE21485A9DE6}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAE4867-25EA-425A-89E4-922694617298}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Horas de Implementación</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Abril</t>
   </si>
   <si>
+    <t>Mayo</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +100,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -180,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -203,11 +212,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -544,28 +584,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10" customWidth="1"/>
-    <col min="31" max="35" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,22 +700,33 @@
       <c r="AE1" s="11">
         <v>44673</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AF1" s="12">
         <v>44677</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AG1" s="12">
         <v>44678</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AH1" s="12">
         <v>44679</v>
       </c>
-      <c r="AI1" s="11">
+      <c r="AI1" s="12">
         <v>44680</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
+      <c r="AJ1" s="12">
+        <v>44684</v>
+      </c>
+      <c r="AK1" s="12">
+        <v>44685</v>
+      </c>
+      <c r="AL1" s="12">
+        <v>44686</v>
+      </c>
+      <c r="AM1" s="12">
+        <v>44687</v>
+      </c>
+      <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,8 +817,20 @@
       <c r="AI2">
         <v>2.5</v>
       </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -824,54 +888,85 @@
       <c r="AH3">
         <v>3</v>
       </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
+        <v>4</v>
+      </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="15">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="15">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15">
       <c r="A13" s="6">
         <f>SUM(B2:Q2)</f>
         <v>38.5</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="6">
-        <f>SUM(R2:AK2)</f>
-        <v>36</v>
+        <f>SUM(R2:AE2)</f>
+        <v>28.5</v>
       </c>
       <c r="D13" s="7"/>
+      <c r="E13" s="6">
+        <f>SUM(AF2:AGR2)</f>
+        <v>17</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="15">
       <c r="A14" s="6">
         <f>SUM(B3:Q3)</f>
         <v>12</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="6">
-        <f>SUM(R3:AK3)</f>
-        <v>44.5</v>
+        <f>SUM(R3:AE3)</f>
+        <v>35.5</v>
       </c>
       <c r="D14" s="7"/>
+      <c r="E14" s="6">
+        <f>SUM(AF3:AGR3)</f>
+        <v>20.5</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="9">
         <f>SUM(A13:A14)</f>
         <v>50.5</v>
@@ -881,50 +976,78 @@
       </c>
       <c r="C15" s="9">
         <f>SUM(C13:C14)</f>
-        <v>80.5</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8">
         <v>65</v>
       </c>
+      <c r="E15" s="9">
+        <f>SUM(E13:E14)</f>
+        <v>37.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>65</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="15">
       <c r="B16" s="5">
         <f>A15/B15</f>
         <v>1.2625</v>
       </c>
       <c r="D16" s="5">
         <f>C15/D15</f>
-        <v>1.2384615384615385</v>
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="F16" s="5">
+        <f>E15/F15</f>
+        <v>0.57692307692307687</v>
       </c>
     </row>
+    <row r="17" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+      <formula>0.8</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAE4867-25EA-425A-89E4-922694617298}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{095A1E1B-F145-4EF8-A49D-999E8687A916}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Horas de Implementación</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Grupo La Fuente</t>
+  </si>
+  <si>
+    <t>Enerjet</t>
   </si>
   <si>
     <t>Marzo</t>
@@ -107,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -185,11 +188,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -213,6 +225,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -604,9 +619,10 @@
     <col min="29" max="30" width="10" customWidth="1"/>
     <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15">
+    <row r="1" spans="1:43" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,9 +740,18 @@
       <c r="AM1" s="12">
         <v>44687</v>
       </c>
-      <c r="AN1" s="12"/>
+      <c r="AN1" s="12">
+        <v>44691</v>
+      </c>
+      <c r="AO1" s="12">
+        <v>44693</v>
+      </c>
+      <c r="AP1" s="12">
+        <v>44694</v>
+      </c>
+      <c r="AQ1" s="12"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -830,7 +855,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:43" ht="15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,38 +926,53 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15">
+    <row r="4" spans="1:43" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4">
+        <v>4</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15"/>
+    <row r="11" spans="1:43" ht="15">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15">
+    <row r="12" spans="1:43" ht="15">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15">
+    <row r="13" spans="1:43" ht="15">
       <c r="A13" s="6">
         <f>SUM(B2:Q2)</f>
         <v>38.5</v>
@@ -949,7 +989,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:40" ht="15">
+    <row r="14" spans="1:43" ht="15">
       <c r="A14" s="6">
         <f>SUM(B3:Q3)</f>
         <v>12</v>
@@ -966,88 +1006,99 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
-      <c r="A15" s="9">
+    <row r="15" spans="1:43" ht="15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13">
+        <f>SUM(AF4:AGR4)</f>
+        <v>12</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:43" ht="15">
+      <c r="A16" s="9">
         <f>SUM(A13:A14)</f>
         <v>50.5</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>40</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="9">
         <f>SUM(C13:C14)</f>
         <v>64</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>65</v>
       </c>
-      <c r="E15" s="9">
-        <f>SUM(E13:E14)</f>
-        <v>37.5</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E16" s="9">
+        <f>SUM(E13:E15)</f>
+        <v>49.5</v>
+      </c>
+      <c r="F16" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15">
-      <c r="B16" s="5">
-        <f>A15/B15</f>
+    <row r="17" spans="2:6" ht="15">
+      <c r="B17" s="5">
+        <f>A16/B16</f>
         <v>1.2625</v>
       </c>
-      <c r="D16" s="5">
-        <f>C15/D15</f>
+      <c r="D17" s="5">
+        <f>C16/D16</f>
         <v>0.98461538461538467</v>
       </c>
-      <c r="F16" s="5">
-        <f>E15/F15</f>
-        <v>0.57692307692307687</v>
+      <c r="F17" s="5">
+        <f>E16/F16</f>
+        <v>0.7615384615384615</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
+    <row r="18" spans="2:6" ht="15"/>
   </sheetData>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{095A1E1B-F145-4EF8-A49D-999E8687A916}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48854E22-3B18-4F52-B636-32FBF1070938}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -619,10 +619,10 @@
     <col min="29" max="30" width="10" customWidth="1"/>
     <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="47" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15">
+    <row r="1" spans="1:52" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -749,9 +749,28 @@
       <c r="AP1" s="12">
         <v>44694</v>
       </c>
-      <c r="AQ1" s="12"/>
+      <c r="AQ1" s="12">
+        <v>44698</v>
+      </c>
+      <c r="AR1" s="12">
+        <v>44699</v>
+      </c>
+      <c r="AS1" s="12">
+        <v>44700</v>
+      </c>
+      <c r="AT1" s="12">
+        <v>44701</v>
+      </c>
+      <c r="AU1" s="12">
+        <v>44704</v>
+      </c>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
     </row>
-    <row r="2" spans="1:43" ht="15">
+    <row r="2" spans="1:52" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -854,8 +873,17 @@
       <c r="AM2">
         <v>2.5</v>
       </c>
+      <c r="AQ2">
+        <v>2</v>
+      </c>
+      <c r="AR2">
+        <v>2</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" ht="15">
+    <row r="3" spans="1:52" ht="15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="AM3">
         <v>1.5</v>
       </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" ht="15">
+    <row r="4" spans="1:52" ht="15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -939,9 +973,18 @@
       <c r="AP4">
         <v>4</v>
       </c>
+      <c r="AQ4">
+        <v>4</v>
+      </c>
+      <c r="AS4">
+        <v>4</v>
+      </c>
+      <c r="AT4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" ht="15"/>
-    <row r="11" spans="1:43" ht="15">
+    <row r="5" spans="1:52" ht="15"/>
+    <row r="11" spans="1:52" ht="15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -952,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15">
+    <row r="12" spans="1:52" ht="15">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -972,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15">
+    <row r="13" spans="1:52" ht="15">
       <c r="A13" s="6">
         <f>SUM(B2:Q2)</f>
         <v>38.5</v>
@@ -985,11 +1028,11 @@
       <c r="D13" s="7"/>
       <c r="E13" s="6">
         <f>SUM(AF2:AGR2)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:43" ht="15">
+    <row r="14" spans="1:52" ht="15">
       <c r="A14" s="6">
         <f>SUM(B3:Q3)</f>
         <v>12</v>
@@ -1002,22 +1045,22 @@
       <c r="D14" s="7"/>
       <c r="E14" s="6">
         <f>SUM(AF3:AGR3)</f>
-        <v>20.5</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:43" ht="15">
+    <row r="15" spans="1:52" ht="15">
       <c r="A15" s="13"/>
       <c r="B15" s="7"/>
       <c r="C15" s="13"/>
       <c r="D15" s="7"/>
       <c r="E15" s="13">
         <f>SUM(AF4:AGR4)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:43" ht="15">
+    <row r="16" spans="1:52" ht="15">
       <c r="A16" s="9">
         <f>SUM(A13:A14)</f>
         <v>50.5</v>
@@ -1034,7 +1077,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(E13:E15)</f>
-        <v>49.5</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8">
         <v>65</v>
@@ -1051,7 +1094,7 @@
       </c>
       <c r="F17" s="5">
         <f>E16/F16</f>
-        <v>0.7615384615384615</v>
+        <v>1.1230769230769231</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15"/>

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48854E22-3B18-4F52-B636-32FBF1070938}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{F11D9125-1AD1-4FBB-A7E4-10F5880DD6B2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Horas de Implementación</t>
   </si>
@@ -84,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +109,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -197,11 +203,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -228,11 +275,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -599,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ18"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AP5" sqref="AP5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -619,10 +704,10 @@
     <col min="29" max="30" width="10" customWidth="1"/>
     <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="47" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15">
+    <row r="1" spans="1:53" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -761,16 +846,25 @@
       <c r="AT1" s="12">
         <v>44701</v>
       </c>
-      <c r="AU1" s="12">
+      <c r="AU1" s="18">
         <v>44704</v>
       </c>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
+      <c r="AV1" s="18">
+        <v>44705</v>
+      </c>
+      <c r="AW1" s="18">
+        <v>44706</v>
+      </c>
+      <c r="AX1" s="18">
+        <v>44707</v>
+      </c>
+      <c r="AY1" s="18">
+        <v>44708</v>
+      </c>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="19"/>
     </row>
-    <row r="2" spans="1:52" ht="15">
+    <row r="2" spans="1:53" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -882,8 +976,11 @@
       <c r="AU2">
         <v>2</v>
       </c>
+      <c r="AV2">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" ht="15">
+    <row r="3" spans="1:53" ht="15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -959,8 +1056,14 @@
       <c r="AT3">
         <v>2.5</v>
       </c>
+      <c r="AX3">
+        <v>2</v>
+      </c>
+      <c r="AY3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" ht="15">
+    <row r="4" spans="1:53" ht="15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -982,9 +1085,15 @@
       <c r="AT4">
         <v>4</v>
       </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" ht="15"/>
-    <row r="11" spans="1:52" ht="15">
+    <row r="5" spans="1:53" ht="15"/>
+    <row r="11" spans="1:53" ht="15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -994,8 +1103,11 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" ht="15">
+    <row r="12" spans="1:53" ht="15">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1014,8 +1126,14 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" ht="15">
+    <row r="13" spans="1:53" ht="15">
       <c r="A13" s="6">
         <f>SUM(B2:Q2)</f>
         <v>38.5</v>
@@ -1027,12 +1145,17 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6">
-        <f>SUM(AF2:AGR2)</f>
-        <v>23</v>
-      </c>
-      <c r="F13" s="7"/>
+        <f>SUM(AF2:AT2)</f>
+        <v>21</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14">
+        <f>SUM(AU2:BI2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:52" ht="15">
+    <row r="14" spans="1:53" ht="15">
       <c r="A14" s="6">
         <f>SUM(B3:Q3)</f>
         <v>12</v>
@@ -1044,23 +1167,33 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6">
-        <f>SUM(AF3:AGR3)</f>
+        <f>SUM(AF3:AT3)</f>
         <v>26</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14">
+        <f t="shared" ref="G14:G15" si="0">SUM(AU3:BI3)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:52" ht="15">
+    <row r="15" spans="1:53" ht="15">
       <c r="A15" s="13"/>
       <c r="B15" s="7"/>
       <c r="C15" s="13"/>
       <c r="D15" s="7"/>
       <c r="E15" s="13">
-        <f>SUM(AF4:AGR4)</f>
+        <f>SUM(AF4:AT4)</f>
         <v>24</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:52" ht="15">
+    <row r="16" spans="1:53" ht="15">
       <c r="A16" s="9">
         <f>SUM(A13:A14)</f>
         <v>50.5</v>
@@ -1077,13 +1210,20 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(E13:E15)</f>
-        <v>73</v>
-      </c>
-      <c r="F16" s="8">
+        <v>71</v>
+      </c>
+      <c r="F16" s="16">
         <v>65</v>
       </c>
+      <c r="G16" s="14">
+        <f>SUM(G13:G15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="H16" s="14">
+        <v>65</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" ht="15">
+    <row r="17" spans="2:8" ht="15">
       <c r="B17" s="5">
         <f>A16/B16</f>
         <v>1.2625</v>
@@ -1094,54 +1234,74 @@
       </c>
       <c r="F17" s="5">
         <f>E16/F16</f>
-        <v>1.1230769230769231</v>
+        <v>1.0923076923076922</v>
+      </c>
+      <c r="H17" s="5">
+        <f>G16/H16</f>
+        <v>0.23846153846153847</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15"/>
+    <row r="18" spans="2:8" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+      <formula>0.8</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.8</formula>
       <formula>0.99</formula>

--- a/Clientes/Ibermansa/Horas Proyectos.xlsx
+++ b/Clientes/Ibermansa/Horas Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutions/Clientes/Ibermansa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{F11D9125-1AD1-4FBB-A7E4-10F5880DD6B2}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="11_F25DC773A252ABDACC1048BAE91F5A1C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{947B23CD-1652-4FA9-84EB-1FF1B7B865C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Horas de Implementación</t>
+  </si>
+  <si>
+    <t>31/06/2022</t>
   </si>
   <si>
     <t xml:space="preserve">PEI </t>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -276,13 +279,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -705,6 +706,7 @@
     <col min="31" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15">
@@ -846,27 +848,31 @@
       <c r="AT1" s="12">
         <v>44701</v>
       </c>
-      <c r="AU1" s="18">
+      <c r="AU1" s="17">
         <v>44704</v>
       </c>
-      <c r="AV1" s="18">
+      <c r="AV1" s="17">
         <v>44705</v>
       </c>
-      <c r="AW1" s="18">
+      <c r="AW1" s="17">
         <v>44706</v>
       </c>
-      <c r="AX1" s="18">
+      <c r="AX1" s="17">
         <v>44707</v>
       </c>
-      <c r="AY1" s="18">
+      <c r="AY1" s="17">
         <v>44708</v>
       </c>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="19"/>
+      <c r="AZ1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="17">
+        <v>44713</v>
+      </c>
     </row>
     <row r="2" spans="1:53" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="3" spans="1:53" ht="15">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1061,11 +1067,17 @@
       </c>
       <c r="AY3">
         <v>2</v>
+      </c>
+      <c r="AZ3">
+        <v>6</v>
+      </c>
+      <c r="BA3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="15">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN4">
         <v>4</v>
@@ -1095,42 +1107,42 @@
     <row r="5" spans="1:53" ht="15"/>
     <row r="11" spans="1:53" ht="15">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="15">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>8</v>
+      <c r="H12" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:53" ht="15">
@@ -1148,7 +1160,6 @@
         <f>SUM(AF2:AT2)</f>
         <v>21</v>
       </c>
-      <c r="F13" s="15"/>
       <c r="G13" s="14">
         <f>SUM(AU2:BI2)</f>
         <v>3.5</v>
@@ -1170,10 +1181,9 @@
         <f>SUM(AF3:AT3)</f>
         <v>26</v>
       </c>
-      <c r="F14" s="15"/>
       <c r="G14" s="14">
         <f t="shared" ref="G14:G15" si="0">SUM(AU3:BI3)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -1186,7 +1196,6 @@
         <f>SUM(AF4:AT4)</f>
         <v>24</v>
       </c>
-      <c r="F15" s="15"/>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1212,12 +1221,12 @@
         <f>SUM(E13:E15)</f>
         <v>71</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>65</v>
       </c>
       <c r="G16" s="14">
         <f>SUM(G13:G15)</f>
-        <v>15.5</v>
+        <v>27.5</v>
       </c>
       <c r="H16" s="14">
         <v>65</v>
@@ -1238,7 +1247,7 @@
       </c>
       <c r="H17" s="5">
         <f>G16/H16</f>
-        <v>0.23846153846153847</v>
+        <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15"/>
